--- a/Assets/GameConfig/GameEventsConfig.xlsx
+++ b/Assets/GameConfig/GameEventsConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="InteractEvents" sheetId="1" r:id="rId1"/>
+    <sheet name="PlayerEvents" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>SubjectKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>onInteractBtnPressedWhenInteracting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不要随便改这个表。如需修改请先通知吕沛熙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,27 +38,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与道具接触时，玩家按下Interact key时触发此Subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onInteractBtnReleasedWhenInteracting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与道具接触时，玩家松开Interact key时触发此Subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectArg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>object subjectMes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string subjectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InteractableObjectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与道具互动时，玩家按下Interact key时触发此Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与道具互动时，玩家松开Interact key时触发此Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递信息：玩家当前正在与那个道具交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_onInteractionCompleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家和道具接触时触发此Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家和道具脱离接触时触发此Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家成功完成互动行为时触发此Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_onInteractBtnPressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_onInteractBtnReleased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_onPlayerContactStarted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_onPlayerContactEnded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subjectMes说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectArg说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subjectName说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAttr_onFatigueReachMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家Fatigue value达到最大时触发此Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object subjectMes 类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在心中的独白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact_showMonologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依情况而定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向曹烨发送玩家在心中的独白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,16 +205,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,87 +502,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="54.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>